--- a/reporting/Acts_01_22 v3 (1).xlsx
+++ b/reporting/Acts_01_22 v3 (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F769C220-326B-45DA-83AF-5969135A080B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
   <si>
     <t>Контрагент</t>
   </si>
@@ -223,13 +224,16 @@
   </si>
   <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>до 27.01.22?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,8 +295,16 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -561,9 +579,6 @@
     <xf numFmtId="4" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -592,10 +607,19 @@
     <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 5" xfId="1"/>
+    <cellStyle name="Обычный 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -632,422 +656,6 @@
           <color theme="0"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.24994659260841701"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1073,6 +681,42 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1094,6 +738,43 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1112,6 +793,349 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1241,23 +1265,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Acts" displayName="Acts" ref="A5:L33" totalsRowCount="1" headerRowDxfId="20" dataDxfId="18" totalsRowDxfId="16" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="15">
-  <autoFilter ref="A5:L32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Acts" displayName="Acts" ref="A5:L33" totalsRowCount="1" headerRowDxfId="20" dataDxfId="18" totalsRowDxfId="16" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A5:L32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="1" totalsRowLabel="Итог" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="2" totalsRowDxfId="10"/>
-    <tableColumn id="4" name="3" totalsRowDxfId="9"/>
-    <tableColumn id="6" name="4" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="5" totalsRowDxfId="7"/>
-    <tableColumn id="8" name="6" totalsRowDxfId="6"/>
-    <tableColumn id="11" name="7" totalsRowFunction="sum" totalsRowDxfId="5"/>
-    <tableColumn id="9" name="9" totalsRowDxfId="4"/>
-    <tableColumn id="12" name="11" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="12" dataDxfId="14" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="13" dataDxfId="13" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="1" totalsRowLabel="Итог" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="3" totalsRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="4" totalsRowDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="5" totalsRowDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="6" totalsRowDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="7" totalsRowFunction="sum" totalsRowDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="9" totalsRowDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="11" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="12" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="13" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="14" dataDxfId="12" totalsRowDxfId="0">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="14" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Acts[[#This Row],[13]]/6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1527,48 +1551,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N33"/>
+  <dimension ref="A2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="22" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.7265625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" style="1"/>
+    <col min="14" max="14" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1597,7 +1621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -1625,17 +1649,17 @@
       <c r="I5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1663,17 +1687,21 @@
       <c r="I6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="27">
+      <c r="J6" s="23"/>
+      <c r="K6" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>2695140</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="28">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>449190</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="N6" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="33"/>
+    </row>
+    <row r="7" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -1701,17 +1729,18 @@
       <c r="I7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="27">
+      <c r="J7" s="23"/>
+      <c r="K7" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>13879571.369999999</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="28">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>2313261.895</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="O7" s="33"/>
+    </row>
+    <row r="8" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -1739,19 +1768,20 @@
       <c r="I8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <v>5525951.6600000001</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>16186320.34</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="28">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>2697720.0566666666</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
@@ -1777,17 +1807,17 @@
       <c r="I9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="27">
+      <c r="J9" s="23"/>
+      <c r="K9" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>5245944</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="28">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>874324</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1800,11 +1830,11 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="29"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10" s="23"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1814,17 +1844,17 @@
       <c r="G11" s="7"/>
       <c r="H11" s="4"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="27">
+      <c r="J11" s="23"/>
+      <c r="K11" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>0</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="26">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1852,17 +1882,17 @@
       <c r="I12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="27">
+      <c r="J12" s="23"/>
+      <c r="K12" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>2434320</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="29">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>405720</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1890,17 +1920,18 @@
       <c r="I13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="27">
+      <c r="J13" s="23"/>
+      <c r="K13" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>18292958.170000002</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="28">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>3048826.3616666668</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="O13" s="33"/>
+    </row>
+    <row r="14" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1928,17 +1959,17 @@
       <c r="I14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="27">
+      <c r="J14" s="23"/>
+      <c r="K14" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>10000000</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="28">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>1666666.6666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1966,21 +1997,21 @@
       <c r="I15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="27">
+      <c r="J15" s="23"/>
+      <c r="K15" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>10000000</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="28">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>1666666.6666666667</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="30">
         <f>L6+L7+L8+L9+L13+L14+Acts[[#This Row],[14]]</f>
         <v>12716655.646666665</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2008,21 +2039,21 @@
       <c r="I16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="27">
+      <c r="J16" s="23"/>
+      <c r="K16" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>10000000</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="29">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>1666666.6666666667</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="21">
         <f>Acts[[#This Row],[14]]+L17+L18+L19+L20+L24+L12</f>
         <v>27991127.974999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -2050,17 +2081,17 @@
       <c r="I17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="27">
+      <c r="J17" s="23"/>
+      <c r="K17" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>12359489.119999999</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="29">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>2059914.8533333333</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -2088,17 +2119,17 @@
       <c r="I18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="27">
+      <c r="J18" s="23"/>
+      <c r="K18" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>76517793.329999998</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="29">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>12752965.555</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -2126,17 +2157,17 @@
       <c r="I19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="27">
+      <c r="J19" s="23"/>
+      <c r="K19" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>13879571.369999999</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="29">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>2313261.895</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -2164,17 +2195,17 @@
       <c r="I20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="27">
+      <c r="J20" s="23"/>
+      <c r="K20" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>24893448</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="29">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>4148908</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2187,11 +2218,11 @@
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="29"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J21" s="23"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="28"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2201,17 +2232,17 @@
       <c r="G22" s="7"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="27">
+      <c r="J22" s="23"/>
+      <c r="K22" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>0</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="26">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -2239,20 +2270,20 @@
       <c r="I23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="23">
         <f>Acts[[#This Row],[7]]</f>
         <v>142097760</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>0</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="26">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -2280,17 +2311,17 @@
       <c r="I24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="27">
+      <c r="J24" s="23"/>
+      <c r="K24" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>27862146.030000001</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="29">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>4643691.0049999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -2318,17 +2349,17 @@
       <c r="I25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="27">
+      <c r="J25" s="23"/>
+      <c r="K25" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>2157396</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="26">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>359566</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -2356,19 +2387,19 @@
       <c r="I26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="23">
         <v>51260845.030000001</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>18261562.969999999</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="26">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>3043593.8283333331</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -2396,14 +2427,14 @@
       <c r="I27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27">
+      <c r="J27" s="23"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26">
         <f>Acts[[#This Row],[7]]/6</f>
         <v>24980772</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
@@ -2431,17 +2462,17 @@
       <c r="I28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="27">
+      <c r="J28" s="23"/>
+      <c r="K28" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>12760560</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="26">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>2126760</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2451,17 +2482,17 @@
       <c r="G29" s="7"/>
       <c r="H29" s="4"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="27">
+      <c r="J29" s="23"/>
+      <c r="K29" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>0</v>
       </c>
-      <c r="L29" s="27">
+      <c r="L29" s="26">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2471,17 +2502,17 @@
       <c r="G30" s="7"/>
       <c r="H30" s="4"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="27">
+      <c r="J30" s="23"/>
+      <c r="K30" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>0</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="26">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2491,17 +2522,17 @@
       <c r="G31" s="7"/>
       <c r="H31" s="4"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="27">
+      <c r="J31" s="23"/>
+      <c r="K31" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>0</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="26">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2511,12 +2542,12 @@
       <c r="G32" s="7"/>
       <c r="H32" s="4"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="27">
+      <c r="J32" s="23"/>
+      <c r="K32" s="26">
         <f>Acts[[#This Row],[7]]-Acts[[#This Row],[12]]</f>
         <v>0</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L32" s="26">
         <f>Acts[[#This Row],[13]]/6</f>
         <v>0</v>
       </c>
@@ -2536,9 +2567,9 @@
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="18"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
